--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1561.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1561.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.386253284905705</v>
+        <v>1.152819514274597</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.432760715484619</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.712436676025391</v>
       </c>
       <c r="D1">
-        <v>1.232594757931532</v>
+        <v>2.11025857925415</v>
       </c>
       <c r="E1">
-        <v>0.8061040551066682</v>
+        <v>0.9321473836898804</v>
       </c>
     </row>
   </sheetData>
